--- a/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
+++ b/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntusinschi\Dropbox\OpenHW-Project\core-v-docs\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntusinschi\Dropbox\OpenHW-Project\forkHW\core-v-docs\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB17A15-AA30-4F17-8956-555F77D656F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F965F36-1553-4A72-92FE-BBABB77E9274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>RVC.Mem_a</t>
+  </si>
+  <si>
+    <t>details on what was left open</t>
   </si>
 </sst>
 </file>
@@ -639,12 +642,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -670,6 +667,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,9 +1082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1125,13 +1128,13 @@
       <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L1"/>
@@ -2150,10 +2153,10 @@
       <c r="AMK1"/>
     </row>
     <row r="2" spans="1:1025" ht="58.2" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2165,59 +2168,59 @@
       <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1025" s="13" customFormat="1" ht="55.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:1025" s="11" customFormat="1" ht="55.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4" spans="1:1025" ht="55.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2227,28 +2230,28 @@
       <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="5" spans="1:1025" ht="66.599999999999994" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2258,30 +2261,30 @@
       <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="6" spans="1:1025" ht="66.599999999999994" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2293,28 +2296,28 @@
       <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="7" spans="1:1025" ht="69.599999999999994">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2324,28 +2327,28 @@
       <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" spans="1:1025" ht="67.8" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2355,28 +2358,28 @@
       <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="9" spans="1:1025" ht="73.2" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
@@ -2386,204 +2389,204 @@
       <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:1025">
-      <c r="F11" s="7"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:1025">
-      <c r="F12" s="7"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:1025">
-      <c r="F13" s="7"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:1025">
-      <c r="F14" s="7"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:1025">
-      <c r="F15" s="7"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:1025">
-      <c r="F16" s="7"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="7"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="7"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="7"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="7"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="7"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="7"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="7"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="6:6">
-      <c r="F24" s="7"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="6:6">
-      <c r="F25" s="7"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="6:6">
-      <c r="F26" s="7"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="6:6">
-      <c r="F27" s="7"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="6:6">
-      <c r="F28" s="7"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="6:6">
-      <c r="F29" s="7"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="6:6">
-      <c r="F30" s="7"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="6:6">
-      <c r="F31" s="7"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="6:6">
-      <c r="F32" s="7"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="7"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="6:6">
-      <c r="F34" s="7"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="6:6">
-      <c r="F35" s="7"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="6:6">
-      <c r="F36" s="7"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="6:6">
-      <c r="F37" s="7"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="6:6">
-      <c r="F38" s="7"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="6:6">
-      <c r="F39" s="7"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="6:6">
-      <c r="F40" s="7"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="6:6">
-      <c r="F41" s="7"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="6:6">
-      <c r="F42" s="7"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="7"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="6:6">
-      <c r="F44" s="7"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="7"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="6:6">
-      <c r="F46" s="7"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="6:6">
-      <c r="F47" s="7"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="6:6">
-      <c r="F48" s="7"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="6:6">
-      <c r="F49" s="7"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="6:6">
-      <c r="F50" s="7"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="7"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="6:6">
-      <c r="F52" s="7"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="6:6">
-      <c r="F53" s="7"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="6:6">
-      <c r="F54" s="7"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="6:6">
-      <c r="F55" s="7"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="6:6">
-      <c r="F56" s="7"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="6:6">
-      <c r="F57" s="7"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="6:6">
-      <c r="F58" s="7"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="6:6">
-      <c r="F59" s="7"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="6:6">
-      <c r="F60" s="7"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" spans="6:6">
-      <c r="F61" s="7"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="6:6">
-      <c r="F62" s="7"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="6:6">
-      <c r="F63" s="7"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="6:6">
-      <c r="F64" s="7"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" spans="6:6">
-      <c r="F65" s="7"/>
+      <c r="F65" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2644,18 +2647,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
     </row>

--- a/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
+++ b/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntusinschi\Dropbox\OpenHW-Project\forkHW\core-v-docs\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F965F36-1553-4A72-92FE-BBABB77E9274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C454424A-EAA0-48D0-A864-CE745393432F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -477,9 +477,6 @@
     <t>Self Checking Test</t>
   </si>
   <si>
-    <t>RV32I.CSR_a</t>
-  </si>
-  <si>
     <t>Signature Check</t>
   </si>
   <si>
@@ -489,9 +486,6 @@
     <t>Partial Proof</t>
   </si>
   <si>
-    <t>RV32I.Ret_a</t>
-  </si>
-  <si>
     <t>Check against ISS</t>
   </si>
   <si>
@@ -501,56 +495,57 @@
     <t>Witness</t>
   </si>
   <si>
-    <t>RV32I.CallBreak_a</t>
-  </si>
-  <si>
     <t>Check against RM</t>
   </si>
   <si>
     <t>Observation Coverage</t>
   </si>
   <si>
-    <t>RV32I.FENCE_a</t>
-  </si>
-  <si>
-    <t>RV32I.Arith_a</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>RV32I.Branch_a</t>
-  </si>
-  <si>
-    <t>RV32I.Jump_a</t>
-  </si>
-  <si>
-    <t>RV32I.Mem_a</t>
-  </si>
-  <si>
     <t>RV32M.all_a</t>
   </si>
   <si>
-    <t>RVC.Arith_a</t>
-  </si>
-  <si>
-    <t>RVC.Branch_a</t>
-  </si>
-  <si>
-    <t>RVC.Jump_a</t>
-  </si>
-  <si>
-    <t>RVC.Mem_a</t>
-  </si>
-  <si>
-    <t>details on what was left open</t>
+    <t>RV_chk.ops.RV32M.div_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32M.divu_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32M.mul_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32M.mulh_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32M.mulhsu_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32M.mulhu_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32M.rem_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32M.remu_a</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each operand is controlled by a parameter defining the number of bits to be tied to '0 or '1:
+(opA[XLEN-1:PARAM]='0 || opA[XLEN-1:PARAM]='1) &amp;&amp; (opB[XLEN-1:PARAM]='0 || opB[XLEN-1:PARAM]='1) </t>
+  </si>
+  <si>
+    <t>Each operand is controlled by a parameter defining the number of bits to be tied to '0 or '1 (default is 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -604,6 +599,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -631,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -657,9 +658,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1082,9 +1080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1094,11 +1092,11 @@
     <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.109375" style="1" customWidth="1"/>
     <col min="11" max="1023" width="17" style="1" customWidth="1"/>
     <col min="1024" max="1025" width="9.109375" style="1" customWidth="1"/>
   </cols>
@@ -2152,11 +2150,11 @@
       <c r="AMJ1"/>
       <c r="AMK1"/>
     </row>
-    <row r="2" spans="1:1025" ht="58.2" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:1025" ht="55.2">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2169,7 +2167,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>33</v>
@@ -2178,18 +2176,18 @@
         <v>34</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1025" s="11" customFormat="1" ht="55.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1025" s="10" customFormat="1" ht="44.4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
@@ -2200,7 +2198,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>33</v>
@@ -2209,18 +2207,18 @@
         <v>34</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1025" ht="55.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1025" ht="42">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2231,7 +2229,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>33</v>
@@ -2240,18 +2238,18 @@
         <v>34</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1025" ht="66.599999999999994" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2262,7 +2260,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>33</v>
@@ -2271,20 +2269,20 @@
         <v>34</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1025" ht="66.599999999999994" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2297,7 +2295,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>33</v>
@@ -2306,18 +2304,18 @@
         <v>34</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:1025" ht="69.599999999999994">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2328,7 +2326,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>33</v>
@@ -2337,18 +2335,18 @@
         <v>34</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1025" ht="67.8" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2359,7 +2357,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>33</v>
@@ -2368,18 +2366,18 @@
         <v>34</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1025" ht="73.2" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
@@ -2390,7 +2388,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>33</v>
@@ -2399,29 +2397,29 @@
         <v>34</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:1025">
       <c r="F11" s="5"/>
@@ -2596,6 +2594,7 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A9"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
@@ -2633,32 +2632,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142B4F6E-3B68-426B-AD92-C4336562BE63}">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2678,46 +2677,46 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -2725,50 +2724,30 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
+++ b/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntusinschi\Dropbox\OpenHW-Project\forkHW\core-v-docs\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Dropbox\openHW\core-v-docs\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C454424A-EAA0-48D0-A864-CE745393432F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E690D128-5ED9-4981-9E64-E73D53CFCFAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -534,18 +534,14 @@
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Each operand is controlled by a parameter defining the number of bits to be tied to '0 or '1:
-(opA[XLEN-1:PARAM]='0 || opA[XLEN-1:PARAM]='1) &amp;&amp; (opB[XLEN-1:PARAM]='0 || opB[XLEN-1:PARAM]='1) </t>
-  </si>
-  <si>
-    <t>Each operand is controlled by a parameter defining the number of bits to be tied to '0 or '1 (default is 1)</t>
+    <t>Regression run with 4 most significant bits and 4 least siginificant bits of either operands free and the remaining bits all set to the same value - all 0 or all 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -605,6 +601,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="DejaVu Sans"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -632,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -665,6 +667,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,7 +1087,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1092,7 +1097,7 @@
     <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -2150,11 +2155,11 @@
       <c r="AMJ1"/>
       <c r="AMK1"/>
     </row>
-    <row r="2" spans="1:1025" ht="55.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:1025" ht="42">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2178,7 +2183,7 @@
       <c r="I2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="13" t="s">
         <v>57</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -2186,8 +2191,8 @@
       </c>
     </row>
     <row r="3" spans="1:1025" s="10" customFormat="1" ht="44.4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
@@ -2209,16 +2214,16 @@
       <c r="I3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>58</v>
+      <c r="J3" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1025" ht="42">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2240,16 +2245,16 @@
       <c r="I4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>58</v>
+      <c r="J4" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1025" ht="66.599999999999994" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2271,18 +2276,18 @@
       <c r="I5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>58</v>
+      <c r="J5" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1025" ht="66.599999999999994" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2306,16 +2311,16 @@
       <c r="I6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>58</v>
+      <c r="J6" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:1025" ht="69.599999999999994">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2326,7 +2331,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>33</v>
@@ -2337,16 +2342,16 @@
       <c r="I7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>58</v>
+      <c r="J7" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="67.8" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+    <row r="8" spans="1:1025" ht="55.8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>33</v>
@@ -2368,16 +2373,16 @@
       <c r="I8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>58</v>
+      <c r="J8" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="73.2" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+    <row r="9" spans="1:1025" ht="56.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
@@ -2388,7 +2393,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>33</v>
@@ -2399,27 +2404,27 @@
       <c r="I9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>58</v>
+      <c r="J9" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:1025">
       <c r="F11" s="5"/>
